--- a/Template/匯入面談資料範本.xlsx
+++ b/Template/匯入面談資料範本.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19031"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19024"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="9D15599506E37686DCA5214F56C45BFE8D294141" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="9D15599506E37686DCA5214F56C45BFE8D294141" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" firstSheet="4" activeTab="4" xr2:uid="{38E20AC2-159A-4C6D-8820-95C28B0D8BDF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" firstSheet="9" activeTab="4" xr2:uid="{38E20AC2-159A-4C6D-8820-95C28B0D8BDF}"/>
   </bookViews>
   <sheets>
     <sheet name="聯繫狀況" sheetId="3" state="hidden" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="179">
   <si>
     <t>姓名</t>
   </si>
@@ -368,36 +368,72 @@
     <t>關係</t>
   </si>
   <si>
+    <t>不想回答</t>
+  </si>
+  <si>
+    <t>步便告知</t>
+  </si>
+  <si>
     <t>在工作中您最在乎什麼?</t>
   </si>
   <si>
+    <t>團隊氣氛</t>
+  </si>
+  <si>
     <t>希望待遇</t>
   </si>
   <si>
+    <t>依公司規定</t>
+  </si>
+  <si>
     <t>通知後多久可報到?</t>
   </si>
   <si>
+    <t>一星期後</t>
+  </si>
+  <si>
     <t>優點</t>
   </si>
   <si>
+    <t>善於傾聽</t>
+  </si>
+  <si>
     <t>缺點</t>
   </si>
   <si>
+    <t>動作較慢</t>
+  </si>
+  <si>
     <t>嗜好</t>
   </si>
   <si>
+    <t>打籃球</t>
+  </si>
+  <si>
     <t>什麼原因吸引您來亦思應徵此工作? 您對亦思的第一印象是什麼?</t>
   </si>
   <si>
+    <t>完善的教育練</t>
+  </si>
+  <si>
     <t>請描述您對未來的目標、希望。</t>
   </si>
   <si>
+    <t>累積程式開發經驗</t>
+  </si>
+  <si>
     <t>您心目中的理想主管是什麼樣的人?</t>
   </si>
   <si>
+    <t>能夠引導新人</t>
+  </si>
+  <si>
     <t>您希望亦思給與您什麼承諾?(任何方面)</t>
   </si>
   <si>
+    <t>憶起進步</t>
+  </si>
+  <si>
     <t>覺得自己的哪個特質最強烈? 現在您有三十秒的自我推薦時間，您會透過什麼方式讓我們對您印象深刻?</t>
   </si>
   <si>
@@ -407,16 +443,76 @@
     <t>公司名稱</t>
   </si>
   <si>
+    <t>屏東科技大學</t>
+  </si>
+  <si>
+    <t>學生</t>
+  </si>
+  <si>
     <t>專案名稱</t>
   </si>
   <si>
+    <t>智慧水產養殖管理資訊系統</t>
+  </si>
+  <si>
+    <t>105.07~105.12</t>
+  </si>
+  <si>
+    <t>win10</t>
+  </si>
+  <si>
+    <t>ASPNET C#</t>
+  </si>
+  <si>
+    <t>MS SQL</t>
+  </si>
+  <si>
+    <t>VISUAL STUDIO</t>
+  </si>
+  <si>
     <t>專案簡述</t>
   </si>
   <si>
-    <t>HR</t>
+    <t>科技養殖業，智慧水中現</t>
+  </si>
+  <si>
+    <t>亦思科技公司</t>
+  </si>
+  <si>
+    <t>人才資料庫系統</t>
+  </si>
+  <si>
+    <t>106.12~106.02</t>
+  </si>
+  <si>
+    <t>winform C#</t>
+  </si>
+  <si>
+    <t>交給鴻志</t>
   </si>
   <si>
     <t>■暫保留</t>
+  </si>
+  <si>
+    <t>面談者</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>面談結果</t>
+  </si>
+  <si>
+    <t>要加強SQL語法</t>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>要學很多東西</t>
+  </si>
+  <si>
+    <t>好好加油</t>
   </si>
   <si>
     <t>2018/01/31</t>
@@ -477,7 +573,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -507,6 +603,13 @@
       <name val="新細明體"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -929,7 +1032,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1032,104 +1135,110 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1537,10 +1646,10 @@
       </c>
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
       <c r="I2" s="32" t="s">
         <v>1</v>
       </c>
@@ -1551,13 +1660,13 @@
       <c r="B3" s="32"/>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
       <c r="I3" s="32"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
     </row>
     <row r="4" spans="2:11" ht="17.25" thickBot="1">
       <c r="B4" s="32" t="s">
@@ -1565,10 +1674,10 @@
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="42"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
       <c r="I4" s="32" t="s">
         <v>3</v>
       </c>
@@ -1579,13 +1688,13 @@
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
       <c r="D5" s="32"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
-      <c r="K5" s="35"/>
+      <c r="K5" s="38"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="32" t="s">
@@ -1593,10 +1702,10 @@
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
       <c r="I6" s="32" t="s">
         <v>5</v>
       </c>
@@ -1605,15 +1714,15 @@
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="32"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
       <c r="I7" s="32"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1">
       <c r="B8" s="32" t="s">
@@ -1621,10 +1730,10 @@
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="32" t="s">
         <v>7</v>
       </c>
@@ -1633,15 +1742,15 @@
     </row>
     <row r="9" spans="2:11" ht="17.25" thickTop="1">
       <c r="B9" s="32"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
       <c r="I9" s="32"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickBot="1">
       <c r="B10" s="32" t="s">
@@ -1649,10 +1758,10 @@
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="42"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
       <c r="I10" s="32" t="s">
         <v>9</v>
       </c>
@@ -1660,16 +1769,16 @@
       <c r="K10" s="42"/>
     </row>
     <row r="11" spans="2:11" ht="17.25" thickTop="1">
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="33" t="s">
@@ -1727,7 +1836,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0" xr3:uid="{046E3C74-96C1-56BF-B18C-BD4EDA941545}"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0" xr3:uid="{046E3C74-96C1-56BF-B18C-BD4EDA941545}">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
   <sheetData>
@@ -1736,108 +1847,108 @@
         <v>28</v>
       </c>
       <c r="C2" s="50"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="51"/>
       <c r="C3" s="52"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="49" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="50"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="51"/>
       <c r="C10" s="52"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
     </row>
     <row r="12" spans="2:13" ht="12.75">
       <c r="B12" s="20"/>
@@ -1855,16 +1966,16 @@
     </row>
     <row r="13" spans="2:13" ht="12.75">
       <c r="B13" s="22"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
       <c r="M13" s="23"/>
     </row>
     <row r="14" spans="2:13" ht="12.75">
@@ -1882,76 +1993,76 @@
       <c r="M14" s="25"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
     </row>
     <row r="17" spans="2:13" ht="12.75">
-      <c r="B17" s="71"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
     </row>
     <row r="19" spans="2:13" ht="12.75">
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="70"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="72"/>
     </row>
     <row r="20" spans="2:13" ht="12.75">
-      <c r="B20" s="75"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="76"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="78"/>
     </row>
     <row r="21" spans="2:13" ht="12.75">
-      <c r="B21" s="71"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="72"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1975,42 +2086,42 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="27" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="27" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="28" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="28" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="28" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2045,23 +2156,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
     </row>
     <row r="2" spans="2:13" ht="17.25" thickBot="1">
       <c r="B2" s="43"/>
       <c r="C2" s="44"/>
-      <c r="D2" s="35"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
@@ -2072,28 +2183,28 @@
       </c>
       <c r="I2" s="42"/>
       <c r="J2" s="42"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="30"/>
     </row>
     <row r="3" spans="2:13" ht="17.25" thickTop="1">
       <c r="B3" s="45"/>
       <c r="C3" s="46"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" spans="2:13" ht="17.25" thickBot="1">
       <c r="B4" s="45"/>
       <c r="C4" s="46"/>
-      <c r="D4" s="35"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2113,21 +2224,21 @@
     <row r="5" spans="2:13" ht="17.25" thickTop="1">
       <c r="B5" s="45"/>
       <c r="C5" s="46"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
     </row>
     <row r="6" spans="2:13" ht="17.25" thickBot="1">
       <c r="B6" s="45"/>
       <c r="C6" s="46"/>
-      <c r="D6" s="35"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
@@ -2147,21 +2258,21 @@
     <row r="7" spans="2:13" ht="18" thickTop="1" thickBot="1">
       <c r="B7" s="47"/>
       <c r="C7" s="48"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
     </row>
     <row r="8" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
@@ -2175,23 +2286,23 @@
       <c r="M8" s="42"/>
     </row>
     <row r="9" spans="2:13" ht="17.25" thickTop="1">
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
     </row>
     <row r="10" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
@@ -2209,21 +2320,21 @@
       <c r="M10" s="42"/>
     </row>
     <row r="11" spans="2:13" ht="17.25" thickTop="1">
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="35"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
@@ -2250,11 +2361,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B2:C7"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="H12:M12"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="I6:J6"/>
@@ -2264,6 +2370,11 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B2:C7"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2309,19 +2420,19 @@
       <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="38"/>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="38"/>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="35"/>
+      <c r="C7" s="38"/>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="49" t="s">
@@ -2347,8 +2458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{76940753-ABFA-5A7A-8BA6-B3D5DC8D56A1}">
-      <selection activeCell="M20" sqref="M20:O20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{76940753-ABFA-5A7A-8BA6-B3D5DC8D56A1}">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -2365,23 +2476,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
     </row>
     <row r="2" spans="2:13" ht="17.25" thickBot="1">
       <c r="B2" s="43"/>
       <c r="C2" s="44"/>
-      <c r="D2" s="35"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
@@ -2396,28 +2507,28 @@
         <v>34</v>
       </c>
       <c r="J2" s="42"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="30"/>
     </row>
     <row r="3" spans="2:13" ht="17.25" thickTop="1">
       <c r="B3" s="45"/>
       <c r="C3" s="46"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" spans="2:13" ht="17.25" thickBot="1">
       <c r="B4" s="45"/>
       <c r="C4" s="46"/>
-      <c r="D4" s="35"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2443,21 +2554,21 @@
     <row r="5" spans="2:13" ht="17.25" thickTop="1">
       <c r="B5" s="45"/>
       <c r="C5" s="46"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
     </row>
     <row r="6" spans="2:13" ht="17.25" thickBot="1">
       <c r="B6" s="45"/>
       <c r="C6" s="46"/>
-      <c r="D6" s="35"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
@@ -2483,21 +2594,21 @@
     <row r="7" spans="2:13" ht="18" thickTop="1" thickBot="1">
       <c r="B7" s="47"/>
       <c r="C7" s="48"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
     </row>
     <row r="8" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
@@ -2513,23 +2624,23 @@
       <c r="M8" s="42"/>
     </row>
     <row r="9" spans="2:13" ht="17.25" thickTop="1">
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
     </row>
     <row r="10" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
@@ -2553,129 +2664,129 @@
       <c r="M10" s="42"/>
     </row>
     <row r="11" spans="2:13" ht="17.25" thickTop="1">
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="35"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="53" t="s">
+      <c r="H12" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="54"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="68"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="35"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="55" t="s">
+      <c r="I14" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="57"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="59"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="35"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="58" t="s">
+      <c r="E16" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="60"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="62"/>
     </row>
     <row r="17" spans="3:15" ht="12.75">
-      <c r="C17" s="35"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
     </row>
     <row r="19" spans="3:15">
       <c r="C19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
     </row>
     <row r="20" spans="3:15">
-      <c r="C20" s="35"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="1" t="s">
         <v>55</v>
       </c>
@@ -2703,14 +2814,14 @@
       <c r="L20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M20" s="64" t="s">
+      <c r="M20" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
     </row>
     <row r="22" spans="3:15">
-      <c r="C22" s="35"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="1" t="s">
         <v>65</v>
       </c>
@@ -2726,22 +2837,22 @@
       <c r="H22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="64" t="s">
+      <c r="I22" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="J22" s="65"/>
+      <c r="J22" s="54"/>
       <c r="K22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L22" s="64" t="s">
+      <c r="L22" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
     </row>
     <row r="24" spans="3:15">
-      <c r="C24" s="35"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="1" t="s">
         <v>72</v>
       </c>
@@ -2763,16 +2874,16 @@
       <c r="J24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K24" s="64" t="s">
+      <c r="K24" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
     </row>
     <row r="26" spans="3:15">
-      <c r="C26" s="35"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="1" t="s">
         <v>78</v>
       </c>
@@ -2794,14 +2905,14 @@
       <c r="J26" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K26" s="64"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
     </row>
     <row r="28" spans="3:15">
-      <c r="C28" s="35"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="1" t="s">
         <v>84</v>
       </c>
@@ -2817,18 +2928,18 @@
       <c r="H28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I28" s="64" t="s">
+      <c r="I28" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
     </row>
     <row r="30" spans="3:15">
-      <c r="C30" s="35"/>
+      <c r="C30" s="38"/>
       <c r="D30" s="1" t="s">
         <v>89</v>
       </c>
@@ -2847,17 +2958,17 @@
       <c r="I30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J30" s="64" t="s">
+      <c r="J30" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="65"/>
-      <c r="O30" s="65"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
     </row>
     <row r="32" spans="3:15">
-      <c r="C32" s="35"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="1" t="s">
         <v>94</v>
       </c>
@@ -2879,11 +2990,11 @@
       <c r="J32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K32" s="64"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="65"/>
-      <c r="O32" s="65"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
     </row>
     <row r="34" spans="3:15">
       <c r="C34" s="1" t="s">
@@ -2892,28 +3003,28 @@
       <c r="D34" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E34" s="37" t="s">
+      <c r="E34" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="F34" s="37" t="s">
+      <c r="F34" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G34" s="37" t="s">
+      <c r="G34" s="36" t="s">
         <v>104</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
     </row>
     <row r="35" spans="3:15">
-      <c r="C35" s="35"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="6"/>
       <c r="E35" s="7" t="s">
         <v>106</v>
@@ -2927,332 +3038,316 @@
       <c r="H35" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
     </row>
     <row r="37" spans="3:15">
-      <c r="C37" s="63" t="s">
+      <c r="C37" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
     </row>
     <row r="38" spans="3:15" ht="12.75">
-      <c r="C38" s="64" t="s">
+      <c r="C38" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="65"/>
-      <c r="N38" s="65"/>
-      <c r="O38" s="65"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
     </row>
     <row r="40" spans="3:15">
-      <c r="C40" s="63" t="s">
+      <c r="C40" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="64" t="s">
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="G40" s="65"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="34" t="s">
+      <c r="G40" s="54"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="J40" s="64"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="34" t="s">
+      <c r="J40" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="K40" s="54"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="N40" s="64"/>
-      <c r="O40" s="65"/>
+      <c r="N40" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="O40" s="54"/>
     </row>
     <row r="42" spans="3:15">
-      <c r="C42" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="J42" s="64"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="34" t="s">
+      <c r="C42" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="N42" s="64"/>
-      <c r="O42" s="65"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="G42" s="54"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="J42" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="K42" s="54"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="N42" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="O42" s="54"/>
     </row>
     <row r="44" spans="3:15">
-      <c r="C44" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" s="64"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="J44" s="64"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="65"/>
-      <c r="M44" s="65"/>
-      <c r="N44" s="65"/>
-      <c r="O44" s="65"/>
+      <c r="C44" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="J44" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
     </row>
     <row r="46" spans="3:15">
-      <c r="C46" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="D46" s="64"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="35"/>
-      <c r="O46" s="35"/>
+      <c r="C46" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
     </row>
     <row r="48" spans="3:15">
-      <c r="C48" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="66"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
+      <c r="C48" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="38"/>
     </row>
     <row r="49" spans="3:15" ht="12.75">
-      <c r="C49" s="64"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="65"/>
-      <c r="J49" s="65"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="65"/>
-      <c r="M49" s="65"/>
-      <c r="N49" s="65"/>
-      <c r="O49" s="65"/>
+      <c r="C49" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
     </row>
     <row r="51" spans="3:15">
-      <c r="C51" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="D51" s="66"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
+      <c r="C51" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="38"/>
     </row>
     <row r="52" spans="3:15" ht="12.75">
-      <c r="C52" s="64"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="65"/>
-      <c r="L52" s="65"/>
-      <c r="M52" s="65"/>
-      <c r="N52" s="65"/>
-      <c r="O52" s="65"/>
+      <c r="C52" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54"/>
     </row>
     <row r="54" spans="3:15">
-      <c r="C54" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="D54" s="66"/>
-      <c r="E54" s="66"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="35"/>
+      <c r="C54" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="38"/>
     </row>
     <row r="55" spans="3:15" ht="12.75">
-      <c r="C55" s="64"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
-      <c r="J55" s="65"/>
-      <c r="K55" s="65"/>
-      <c r="L55" s="65"/>
-      <c r="M55" s="65"/>
-      <c r="N55" s="65"/>
-      <c r="O55" s="65"/>
+      <c r="C55" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="54"/>
+      <c r="N55" s="54"/>
+      <c r="O55" s="54"/>
     </row>
     <row r="57" spans="3:15">
-      <c r="C57" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="D57" s="66"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
+      <c r="C57" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="38"/>
     </row>
     <row r="58" spans="3:15" ht="12.75">
-      <c r="C58" s="64"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="65"/>
-      <c r="H58" s="65"/>
-      <c r="I58" s="65"/>
-      <c r="J58" s="65"/>
-      <c r="K58" s="65"/>
-      <c r="L58" s="65"/>
-      <c r="M58" s="65"/>
-      <c r="N58" s="65"/>
-      <c r="O58" s="65"/>
+      <c r="C58" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="54"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="54"/>
+      <c r="K58" s="54"/>
+      <c r="L58" s="54"/>
+      <c r="M58" s="54"/>
+      <c r="N58" s="54"/>
+      <c r="O58" s="54"/>
     </row>
     <row r="60" spans="3:15">
-      <c r="C60" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="D60" s="66"/>
-      <c r="E60" s="66"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="66"/>
-      <c r="H60" s="66"/>
-      <c r="I60" s="66"/>
-      <c r="J60" s="66"/>
-      <c r="K60" s="66"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="35"/>
-      <c r="N60" s="35"/>
-      <c r="O60" s="35"/>
+      <c r="C60" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="56"/>
+      <c r="I60" s="56"/>
+      <c r="J60" s="56"/>
+      <c r="K60" s="56"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="38"/>
     </row>
     <row r="61" spans="3:15" ht="12.75">
-      <c r="C61" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="D61" s="65"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="65"/>
-      <c r="H61" s="65"/>
-      <c r="I61" s="65"/>
-      <c r="J61" s="65"/>
-      <c r="K61" s="65"/>
-      <c r="L61" s="65"/>
-      <c r="M61" s="65"/>
-      <c r="N61" s="65"/>
-      <c r="O61" s="65"/>
+      <c r="C61" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="54"/>
+      <c r="O61" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C61:O61"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:O55"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:O58"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:O49"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:O52"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="J44:O44"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="K32:O32"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:O38"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="K26:O26"/>
-    <mergeCell ref="I28:O28"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="E16:M16"/>
-    <mergeCell ref="E17:M17"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B2:C7"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="H12:M12"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="I6:J6"/>
@@ -3262,6 +3357,46 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B2:C7"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="E16:M16"/>
+    <mergeCell ref="E17:M17"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="K26:O26"/>
+    <mergeCell ref="I28:O28"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="K32:O32"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:O38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="J44:O44"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:O49"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:O52"/>
+    <mergeCell ref="C61:O61"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:O55"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:O58"/>
+    <mergeCell ref="C60:K60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3273,96 +3408,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:M14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0" xr3:uid="{DE0F347B-D5E0-539D-BEA6-AB17DC3D2C00}"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0" xr3:uid="{DE0F347B-D5E0-539D-BEA6-AB17DC3D2C00}">
+      <selection activeCell="C9" sqref="C9:E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
+        <v>136</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
       <c r="F2" s="11"/>
       <c r="G2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
+      <c r="H2" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
       <c r="M2" s="13"/>
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="64"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
+      <c r="H3" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
       <c r="M3" s="15"/>
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="34" t="s">
+      <c r="C4" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
+      <c r="H4" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
       <c r="M4" s="15"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="34" t="s">
+      <c r="C5" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="64"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
+      <c r="H5" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
       <c r="M5" s="15"/>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
+        <v>146</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
       <c r="M6" s="15"/>
     </row>
     <row r="7" spans="2:13" ht="12.75">
@@ -3381,92 +3536,108 @@
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="67" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
+        <v>136</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
       <c r="F9" s="11"/>
       <c r="G9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="67"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
+      <c r="H9" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="13"/>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="64"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
+      <c r="H10" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
       <c r="M10" s="15"/>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="34" t="s">
+      <c r="C11" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="64"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
+      <c r="H11" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
       <c r="M11" s="15"/>
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="34" t="s">
+      <c r="C12" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="64"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
+      <c r="H12" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
       <c r="M12" s="15"/>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
+        <v>146</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
       <c r="M13" s="15"/>
     </row>
     <row r="14" spans="2:13" ht="12.75">
@@ -3485,6 +3656,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:J9"/>
     <mergeCell ref="C13:L13"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="H10:J10"/>
@@ -3492,17 +3674,6 @@
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="H12:J12"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3511,9 +3682,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B2:M21"/>
+  <dimension ref="B2:M23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0" xr3:uid="{BB1F1F2B-0D1A-5265-BE0B-97199321797B}"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0" xr3:uid="{BB1F1F2B-0D1A-5265-BE0B-97199321797B}">
+      <selection activeCell="G15" sqref="G15:L15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
   <sheetData>
@@ -3522,110 +3695,110 @@
         <v>28</v>
       </c>
       <c r="C2" s="50"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="51"/>
       <c r="C3" s="52"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
+        <v>153</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="49" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="50"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="51"/>
       <c r="C10" s="52"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-    </row>
-    <row r="12" spans="2:13" ht="12.75">
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+    </row>
+    <row r="12" spans="2:13">
       <c r="B12" s="20"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -3639,112 +3812,176 @@
       <c r="L12" s="18"/>
       <c r="M12" s="21"/>
     </row>
-    <row r="13" spans="2:13" ht="12.75">
-      <c r="B13" s="22"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
+    <row r="13" spans="2:13">
+      <c r="B13" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
       <c r="M13" s="23"/>
     </row>
-    <row r="14" spans="2:13" ht="12.75">
-      <c r="B14" s="24"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="25"/>
+    <row r="14" spans="2:13">
+      <c r="B14" s="22"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="23"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="23"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="25"/>
+    </row>
+    <row r="17" spans="2:13" ht="16.5" customHeight="1">
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-    </row>
-    <row r="17" spans="2:13" ht="12.75">
-      <c r="B17" s="71"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
     </row>
     <row r="19" spans="2:13" ht="12.75">
       <c r="B19" s="73"/>
       <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="70"/>
-    </row>
-    <row r="20" spans="2:13" ht="12.75">
-      <c r="B20" s="75"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="76"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
     </row>
     <row r="21" spans="2:13" ht="12.75">
-      <c r="B21" s="71"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
+      <c r="B21" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
       <c r="M21" s="72"/>
     </row>
+    <row r="22" spans="2:13" ht="12.75">
+      <c r="B22" s="77"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="78"/>
+    </row>
+    <row r="23" spans="2:13" ht="12.75">
+      <c r="B23" s="73"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="74"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="B19:M21"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="B21:M23"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="G15:L15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3771,23 +4008,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
     </row>
     <row r="2" spans="2:13" ht="17.25" thickBot="1">
       <c r="B2" s="43"/>
       <c r="C2" s="44"/>
-      <c r="D2" s="35"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
@@ -3799,31 +4036,31 @@
         <v>14</v>
       </c>
       <c r="I2" s="42" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="J2" s="42"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="30"/>
     </row>
     <row r="3" spans="2:13" ht="17.25" thickTop="1">
       <c r="B3" s="45"/>
       <c r="C3" s="46"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" spans="2:13" ht="17.25" thickBot="1">
       <c r="B4" s="45"/>
       <c r="C4" s="46"/>
-      <c r="D4" s="35"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3847,21 +4084,21 @@
     <row r="5" spans="2:13" ht="17.25" thickTop="1">
       <c r="B5" s="45"/>
       <c r="C5" s="46"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
     </row>
     <row r="6" spans="2:13" ht="17.25" thickBot="1">
       <c r="B6" s="45"/>
       <c r="C6" s="46"/>
-      <c r="D6" s="35"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
@@ -3887,21 +4124,21 @@
     <row r="7" spans="2:13" ht="18" thickTop="1" thickBot="1">
       <c r="B7" s="47"/>
       <c r="C7" s="48"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
     </row>
     <row r="8" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
@@ -3915,23 +4152,23 @@
       <c r="M8" s="42"/>
     </row>
     <row r="9" spans="2:13" ht="17.25" thickTop="1">
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
     </row>
     <row r="10" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
@@ -3949,137 +4186,137 @@
       <c r="M10" s="42"/>
     </row>
     <row r="11" spans="2:13" ht="17.25" thickTop="1">
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="35"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="53" t="s">
+      <c r="H12" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="54"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="68"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="35"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="55" t="s">
+      <c r="I14" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="57"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="59"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="35"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="58" t="s">
+      <c r="E16" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="60"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="62"/>
     </row>
     <row r="17" spans="3:15" ht="12.75">
-      <c r="C17" s="35"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
     </row>
     <row r="19" spans="3:15">
       <c r="C19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
     </row>
     <row r="20" spans="3:15">
-      <c r="C20" s="35"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>58</v>
@@ -4088,7 +4325,7 @@
         <v>59</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>61</v>
@@ -4099,12 +4336,12 @@
       <c r="L20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M20" s="64"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
     </row>
     <row r="22" spans="3:15">
-      <c r="C22" s="35"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="1" t="s">
         <v>65</v>
       </c>
@@ -4115,23 +4352,23 @@
         <v>67</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="64"/>
-      <c r="J22" s="65"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="54"/>
       <c r="K22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L22" s="64"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
     </row>
     <row r="24" spans="3:15">
-      <c r="C24" s="35"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="1" t="s">
         <v>72</v>
       </c>
@@ -4153,14 +4390,14 @@
       <c r="J24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K24" s="64"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
     </row>
     <row r="26" spans="3:15">
-      <c r="C26" s="35"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="1" t="s">
         <v>78</v>
       </c>
@@ -4174,47 +4411,47 @@
         <v>81</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K26" s="64"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
     </row>
     <row r="28" spans="3:15">
-      <c r="C28" s="35"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I28" s="64"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
     </row>
     <row r="30" spans="3:15">
-      <c r="C30" s="35"/>
+      <c r="C30" s="38"/>
       <c r="D30" s="1" t="s">
         <v>89</v>
       </c>
@@ -4225,7 +4462,7 @@
         <v>91</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>93</v>
@@ -4233,15 +4470,15 @@
       <c r="I30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J30" s="64"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="65"/>
-      <c r="O30" s="65"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
     </row>
     <row r="32" spans="3:15">
-      <c r="C32" s="35"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="1" t="s">
         <v>94</v>
       </c>
@@ -4263,11 +4500,11 @@
       <c r="J32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K32" s="64"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="65"/>
-      <c r="O32" s="65"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
     </row>
     <row r="34" spans="3:15">
       <c r="C34" s="1" t="s">
@@ -4276,338 +4513,298 @@
       <c r="D34" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="F34" s="36" t="s">
+      <c r="F34" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="G34" s="36" t="s">
+      <c r="G34" s="35" t="s">
         <v>104</v>
       </c>
       <c r="H34" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
     </row>
     <row r="36" spans="3:15">
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
     </row>
     <row r="37" spans="3:15" ht="12.75">
-      <c r="C37" s="64"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="65"/>
-      <c r="O37" s="65"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
     </row>
     <row r="39" spans="3:15">
-      <c r="C39" s="63" t="s">
+      <c r="C39" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="34" t="s">
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="J39" s="64"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="34" t="s">
+      <c r="J39" s="53"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="N39" s="64"/>
-      <c r="O39" s="65"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="54"/>
     </row>
     <row r="41" spans="3:15">
-      <c r="C41" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="J41" s="64"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="34" t="s">
+      <c r="C41" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="N41" s="64"/>
-      <c r="O41" s="65"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="J41" s="53"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="N41" s="53"/>
+      <c r="O41" s="54"/>
     </row>
     <row r="43" spans="3:15">
-      <c r="C43" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" s="64"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="J43" s="64"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="65"/>
-      <c r="M43" s="65"/>
-      <c r="N43" s="65"/>
-      <c r="O43" s="65"/>
+      <c r="C43" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="53"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="J43" s="53"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
     </row>
     <row r="45" spans="3:15">
-      <c r="C45" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="D45" s="64"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="35"/>
+      <c r="C45" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="53"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
     </row>
     <row r="47" spans="3:15">
-      <c r="C47" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="35"/>
-      <c r="O47" s="35"/>
+      <c r="C47" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
     </row>
     <row r="48" spans="3:15" ht="12.75">
-      <c r="C48" s="64"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="65"/>
-      <c r="M48" s="65"/>
-      <c r="N48" s="65"/>
-      <c r="O48" s="65"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="54"/>
+      <c r="N48" s="54"/>
+      <c r="O48" s="54"/>
     </row>
     <row r="50" spans="3:15">
-      <c r="C50" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="D50" s="66"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
+      <c r="C50" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
     </row>
     <row r="51" spans="3:15" ht="12.75">
-      <c r="C51" s="64"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="65"/>
-      <c r="M51" s="65"/>
-      <c r="N51" s="65"/>
-      <c r="O51" s="65"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
     </row>
     <row r="53" spans="3:15">
-      <c r="C53" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="D53" s="66"/>
-      <c r="E53" s="66"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="35"/>
+      <c r="C53" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="38"/>
     </row>
     <row r="54" spans="3:15" ht="12.75">
-      <c r="C54" s="64"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="65"/>
-      <c r="L54" s="65"/>
-      <c r="M54" s="65"/>
-      <c r="N54" s="65"/>
-      <c r="O54" s="65"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="54"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="54"/>
+      <c r="N54" s="54"/>
+      <c r="O54" s="54"/>
     </row>
     <row r="56" spans="3:15">
-      <c r="C56" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="D56" s="66"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="35"/>
-      <c r="O56" s="35"/>
+      <c r="C56" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
     </row>
     <row r="57" spans="3:15" ht="12.75">
-      <c r="C57" s="64"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="65"/>
-      <c r="L57" s="65"/>
-      <c r="M57" s="65"/>
-      <c r="N57" s="65"/>
-      <c r="O57" s="65"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="54"/>
+      <c r="L57" s="54"/>
+      <c r="M57" s="54"/>
+      <c r="N57" s="54"/>
+      <c r="O57" s="54"/>
     </row>
     <row r="59" spans="3:15">
-      <c r="C59" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="D59" s="66"/>
-      <c r="E59" s="66"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="66"/>
-      <c r="H59" s="66"/>
-      <c r="I59" s="66"/>
-      <c r="J59" s="66"/>
-      <c r="K59" s="66"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
+      <c r="C59" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="56"/>
+      <c r="K59" s="56"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="38"/>
     </row>
     <row r="60" spans="3:15" ht="12.75">
-      <c r="C60" s="64"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="65"/>
-      <c r="H60" s="65"/>
-      <c r="I60" s="65"/>
-      <c r="J60" s="65"/>
-      <c r="K60" s="65"/>
-      <c r="L60" s="65"/>
-      <c r="M60" s="65"/>
-      <c r="N60" s="65"/>
-      <c r="O60" s="65"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="54"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="54"/>
+      <c r="M60" s="54"/>
+      <c r="N60" s="54"/>
+      <c r="O60" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C60:O60"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:O54"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:O57"/>
-    <mergeCell ref="C59:K59"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:O48"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:O51"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="J43:O43"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="K32:O32"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:O37"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="K26:O26"/>
-    <mergeCell ref="I28:O28"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="E16:M16"/>
-    <mergeCell ref="E17:M17"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B2:C7"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="H12:M12"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="I6:J6"/>
@@ -4617,6 +4814,46 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B2:C7"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="E16:M16"/>
+    <mergeCell ref="E17:M17"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="K26:O26"/>
+    <mergeCell ref="I28:O28"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="K32:O32"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:O37"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="J43:O43"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:O48"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:O51"/>
+    <mergeCell ref="C60:O60"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:O54"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:O57"/>
+    <mergeCell ref="C59:K59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
